--- a/RESULT_SQL_Retention Rate.xlsx
+++ b/RESULT_SQL_Retention Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v3220053\Desktop\Portfolio_PostgreSQL_Analyst_NguyenMinhHoang-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v3220053\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94505014-7714-4D28-91E7-4265C06DCE1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C869669-3D18-4EEE-A958-C7C2FBEC1878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,7 +852,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>261471</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -867,8 +867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1509059" y="3324412"/>
-          <a:ext cx="3974353" cy="1471706"/>
+          <a:off x="1509059" y="3384177"/>
+          <a:ext cx="4377765" cy="1583764"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -893,6 +893,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Quan sát</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> thấy lượng khách hàng mới sẽ quy giảm kể từ tháng thứ 5, một số trường hợp rơi xuống còn 75%. Điều này cần được cảnh báo sớm và có kế hoạch giữ chân tốt hơn.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Đề xuất : từ tháng 3 cần có 1 số chính sách khuyến mãi , đánh vào nhu cầu của khách hàng, cho 3-6 tháng kế tiếp. Thu hút về tăng cường quyền lợi khách hàng, ngoài ra cũng cần một phương án và dự báo về nguy cơ suy giảm lợi nhuận nếu có.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1202,7 +1220,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
